--- a/src/test/resources/org/xlbean/xlscript/Test_commentDefinition.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_commentDefinition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CAD35-38A8-4BF7-9625-208FB80D48F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0EFC62-27A2-4F43-9487-07D9D526485B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="-108" windowWidth="29484" windowHeight="17496" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="1380" yWindow="-108" windowWidth="29448" windowHeight="17496" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
     <sheet name="tableAndFlat" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>table#col1</t>
+          <t>table?ignoreNullBlank=false#col1</t>
         </r>
       </text>
     </comment>
@@ -570,7 +570,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
